--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHAN2\Music\cord\etc\slaythespire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56614965-5603-493E-A95C-7755A8C5F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D83D5C-29C6-4202-92A5-B6E02CA2A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6FE7BCF5-FFA7-42A1-BFC5-CFA842A8FE57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6FE7BCF5-FFA7-42A1-BFC5-CFA842A8FE57}"/>
   </bookViews>
   <sheets>
     <sheet name="유물" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="175">
   <si>
     <t>STARTER</t>
   </si>
@@ -344,9 +344,6 @@
     <t>14 피해를 주고 약화 2를 부여합니다.</t>
   </si>
   <si>
-    <t>SKILL</t>
-  </si>
-  <si>
     <t>소멸. 20 피해를 줍니다.</t>
   </si>
   <si>
@@ -375,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BASIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,6 +638,18 @@
   </si>
   <si>
     <t>중독 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,238 +1055,260 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C25" sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1295,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B85F05D-7047-42ED-A893-F926AEE51962}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
@@ -1485,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>70</v>
@@ -1575,7 +1602,7 @@
         <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>80</v>
@@ -1593,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C7CE45-7F87-40E4-B830-64E906BC31BD}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="A2:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1624,607 +1651,607 @@
         <v>45</v>
       </c>
       <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5">
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
